--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/95.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/95.xlsx
@@ -479,13 +479,13 @@
         <v>-0.179960135222138</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.487854585005224</v>
+        <v>-2.499984077503713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1203546942585869</v>
+        <v>0.1149581161107201</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2655573659368281</v>
+        <v>-0.2751294610377121</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1762063750746695</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.596464989675781</v>
+        <v>-2.608198033734384</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06372355942252969</v>
+        <v>0.0585557015284434</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2860982744883492</v>
+        <v>-0.2956032783147909</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.187723174299757</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.723064394786345</v>
+        <v>-2.728366435229316</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07068031466151804</v>
+        <v>0.06318194986157742</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2975050109848913</v>
+        <v>-0.3074253707921985</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2125842626137737</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.883579658968838</v>
+        <v>-2.887957669586536</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03207111598201248</v>
+        <v>0.02415495551849944</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3050149642776902</v>
+        <v>-0.3148743320173226</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.239964488350887</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.96602324676555</v>
+        <v>-2.968824612433854</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08035670619812599</v>
+        <v>0.0734731414403474</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2974537776480445</v>
+        <v>-0.305477894071342</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2562239182656373</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.853743559303677</v>
+        <v>-2.86093208439983</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1404576797642029</v>
+        <v>0.1310533128494246</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2993756377004776</v>
+        <v>-0.3090422705062576</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2530759857049872</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.668053209267731</v>
+        <v>-2.675649161375951</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1771206215642054</v>
+        <v>0.1700083365526463</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3337361289457563</v>
+        <v>-0.346543243316112</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.22841546143369</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.464104273852655</v>
+        <v>-2.468457887643282</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2002860187877734</v>
+        <v>0.1911140316508361</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3441340566429572</v>
+        <v>-0.3543734049642036</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1799231221696496</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.053717926661371</v>
+        <v>-2.056951726089489</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2422936954781191</v>
+        <v>0.2304264688706321</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3055163190739771</v>
+        <v>-0.3142235466552324</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1051485743420087</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.685933318899584</v>
+        <v>-1.689905122346568</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2284698433396244</v>
+        <v>0.2182103676360453</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2704531992090847</v>
+        <v>-0.2750330935707859</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.00361937924660588</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.254097281348424</v>
+        <v>-1.264418968961032</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1577623492048988</v>
+        <v>0.1453248467646524</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2236180003622781</v>
+        <v>-0.2275410101551216</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1176257996419014</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7493196102236107</v>
+        <v>-0.7616009729706096</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08386192032739707</v>
+        <v>0.072028849277808</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1874893490751069</v>
+        <v>-0.1906511778633689</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2442188678964795</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3396560190342729</v>
+        <v>-0.3554554042447546</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.07047972676505249</v>
+        <v>-0.08447374677235993</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1355649721015145</v>
+        <v>-0.1402814886948072</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3637672615169856</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1063588444892492</v>
+        <v>0.08776724242061489</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2895717727424293</v>
+        <v>-0.2999617714708325</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06573637366198284</v>
+        <v>-0.07192157924488489</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4780815998587212</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5736001674049572</v>
+        <v>0.5586723588415484</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4056835918163106</v>
+        <v>-0.4157466730619769</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0008810684206548459</v>
+        <v>-0.004265518255929819</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.595728591349018</v>
       </c>
       <c r="E17" t="n">
-        <v>0.969200817550515</v>
+        <v>0.9566114448617584</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5738216446168013</v>
+        <v>-0.5770096999941634</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04402373148424417</v>
+        <v>0.04190608689457492</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.721462999737111</v>
       </c>
       <c r="E18" t="n">
-        <v>1.40361864932635</v>
+        <v>1.389617920191598</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7916090702666141</v>
+        <v>-0.7934156553111418</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1070102397720161</v>
+        <v>0.1052463491748607</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8526101819642095</v>
       </c>
       <c r="E19" t="n">
-        <v>1.731186307504722</v>
+        <v>1.71985276148939</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9754257439835903</v>
+        <v>-0.9712752337783197</v>
       </c>
       <c r="G19" t="n">
-        <v>0.213190110545732</v>
+        <v>0.2122038688114304</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9837997483507296</v>
       </c>
       <c r="E20" t="n">
-        <v>2.040169072741905</v>
+        <v>2.035240303753103</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.142630618148656</v>
+        <v>-1.137195005077478</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3097917870117964</v>
+        <v>0.3055778450561441</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.10880688777034</v>
       </c>
       <c r="E21" t="n">
-        <v>2.262419897904159</v>
+        <v>2.26122323353638</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.403003315369695</v>
+        <v>-1.392152216609671</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3770501797195118</v>
+        <v>0.3732314663623922</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.222155186002244</v>
       </c>
       <c r="E22" t="n">
-        <v>2.519392897273005</v>
+        <v>2.517187424105884</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.677754282624393</v>
+        <v>-1.66444215393369</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4911486506394477</v>
+        <v>0.4885821044316919</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.319470776705155</v>
       </c>
       <c r="E23" t="n">
-        <v>2.700461268420554</v>
+        <v>2.699286561197138</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.955465804844026</v>
+        <v>-1.945464935507388</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6210190603394117</v>
+        <v>0.6173686850890746</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.398476793918886</v>
       </c>
       <c r="E24" t="n">
-        <v>2.818218653480302</v>
+        <v>2.820860829851974</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.243265415057071</v>
+        <v>-2.228253437440272</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7253154960633296</v>
+        <v>0.7233454522774334</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.457693411148495</v>
       </c>
       <c r="E25" t="n">
-        <v>2.93887560143731</v>
+        <v>2.944341710542326</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.48977583513698</v>
+        <v>-2.475945273871041</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8290691023849417</v>
+        <v>0.8248014874097356</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.497749962229455</v>
       </c>
       <c r="E26" t="n">
-        <v>2.996929071291543</v>
+        <v>3.002957527260521</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.711650949162359</v>
+        <v>-2.699978287250755</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9309398835774326</v>
+        <v>0.9259940368096826</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.518791304385101</v>
       </c>
       <c r="E27" t="n">
-        <v>2.992762093228</v>
+        <v>2.996697301434379</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.918714749473587</v>
+        <v>-2.908464422580159</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9820756331159898</v>
+        <v>0.9789564987751003</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.521457880892269</v>
       </c>
       <c r="E28" t="n">
-        <v>2.995764122798954</v>
+        <v>3.000767912030995</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.137462800189278</v>
+        <v>-3.128220367214177</v>
       </c>
       <c r="G28" t="n">
-        <v>1.02656751672273</v>
+        <v>1.024365093158993</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.505549409556228</v>
       </c>
       <c r="E29" t="n">
-        <v>2.98843531594715</v>
+        <v>2.994785810033451</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.292100563770289</v>
+        <v>-3.282248210118439</v>
       </c>
       <c r="G29" t="n">
-        <v>1.105360119348428</v>
+        <v>1.102703304880514</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.472568348657466</v>
       </c>
       <c r="E30" t="n">
-        <v>2.897926747041799</v>
+        <v>2.898756239162176</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.349615168706616</v>
+        <v>-3.341023826053942</v>
       </c>
       <c r="G30" t="n">
-        <v>1.096694976293869</v>
+        <v>1.095744109958818</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.423782115666963</v>
       </c>
       <c r="E31" t="n">
-        <v>2.836789518245927</v>
+        <v>2.837808085776096</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.423844649789223</v>
+        <v>-3.416275229230441</v>
       </c>
       <c r="G31" t="n">
-        <v>1.135284657511718</v>
+        <v>1.137635901720582</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.362878233889272</v>
       </c>
       <c r="E32" t="n">
-        <v>2.762839075872932</v>
+        <v>2.762265750436788</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.457962087644817</v>
+        <v>-3.453678919692354</v>
       </c>
       <c r="G32" t="n">
-        <v>1.095234826193734</v>
+        <v>1.094551715035776</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.292211615826901</v>
       </c>
       <c r="E33" t="n">
-        <v>2.583738308828571</v>
+        <v>2.584755656517387</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.426411500957317</v>
+        <v>-3.422965449133691</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063088347005051</v>
+        <v>1.063113353752797</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.21574063921448</v>
       </c>
       <c r="E34" t="n">
-        <v>2.524205171412547</v>
+        <v>2.528886922527265</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.246228124711729</v>
+        <v>-3.24688622912194</v>
       </c>
       <c r="G34" t="n">
-        <v>1.009015829407951</v>
+        <v>1.011059673595734</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.135229655056405</v>
       </c>
       <c r="E35" t="n">
-        <v>2.398548093747559</v>
+        <v>2.405091322767712</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.083268908377506</v>
+        <v>-3.082904785733488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9775335538362471</v>
+        <v>0.9785344336667906</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.054136754068908</v>
       </c>
       <c r="E36" t="n">
-        <v>2.280772411067509</v>
+        <v>2.283903743821933</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.009494733080091</v>
+        <v>-3.003603509263382</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8912017217252665</v>
+        <v>0.8906747502605561</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9740745521502353</v>
       </c>
       <c r="E37" t="n">
-        <v>2.146264164541552</v>
+        <v>2.150505552927658</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.821524499554461</v>
+        <v>-2.815546057080976</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7829926448600097</v>
+        <v>0.7825114174460555</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8977458627223711</v>
       </c>
       <c r="E38" t="n">
-        <v>2.017836217242098</v>
+        <v>2.021085264687135</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.656461666806134</v>
+        <v>-2.64708657608384</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7150377227394481</v>
+        <v>0.7170053268426373</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.825583630273688</v>
       </c>
       <c r="E39" t="n">
-        <v>1.862898067727788</v>
+        <v>1.864260630519644</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.454593170819445</v>
+        <v>-2.445601110282149</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6487088491430968</v>
+        <v>0.6485649078633843</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7591381331681704</v>
       </c>
       <c r="E40" t="n">
-        <v>1.770232819309456</v>
+        <v>1.769503964100742</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.319612235769009</v>
+        <v>-2.306169584053482</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5678053110551738</v>
+        <v>0.5654943216109755</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6974521788163833</v>
       </c>
       <c r="E41" t="n">
-        <v>1.663527196912383</v>
+        <v>1.664260931486511</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.234888154561937</v>
+        <v>-2.221377191730614</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4930729503745879</v>
+        <v>0.490499085118711</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6405037472084375</v>
       </c>
       <c r="E42" t="n">
-        <v>1.470018273721204</v>
+        <v>1.46716811439876</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.154842164945522</v>
+        <v>-2.142532135926716</v>
       </c>
       <c r="G42" t="n">
-        <v>0.464518294051274</v>
+        <v>0.4604623215508994</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5861256753268053</v>
       </c>
       <c r="E43" t="n">
-        <v>1.338390072630852</v>
+        <v>1.330994784425282</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.055444612097244</v>
+        <v>-2.04102608729892</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4376970322912782</v>
+        <v>0.4322010370731014</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5336651577143118</v>
       </c>
       <c r="E44" t="n">
-        <v>1.166849272374784</v>
+        <v>1.160014501271145</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.000638359926017</v>
+        <v>-1.985336669987762</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4155605712493842</v>
+        <v>0.4102469423135551</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4810220331422244</v>
       </c>
       <c r="E45" t="n">
-        <v>1.094665770202328</v>
+        <v>1.083523129358817</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.953110291190425</v>
+        <v>-1.93813490881423</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3805322168630664</v>
+        <v>0.3707777554798348</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4279437484128574</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9732708182264549</v>
+        <v>0.9617732035490772</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.929208719710022</v>
+        <v>-1.914487064335354</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3382451965027701</v>
+        <v>0.3276911291123217</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3735737761696926</v>
       </c>
       <c r="E47" t="n">
-        <v>0.845036825702206</v>
+        <v>0.8292471992225522</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.915937455704661</v>
+        <v>-1.901647624169131</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3030424048029024</v>
+        <v>0.2931470517433419</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3189066013221822</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7567697152839037</v>
+        <v>0.7419535222043399</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.969483001837049</v>
+        <v>-1.955931784241061</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2805052258763849</v>
+        <v>0.2709746053815198</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2643246735641657</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7315836508582694</v>
+        <v>0.7178274999148937</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.924304957468967</v>
+        <v>-1.909144159207041</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2658348038385639</v>
+        <v>0.256681114321929</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2114640545000636</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6746853707657966</v>
+        <v>0.6653773713179445</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.918691247560178</v>
+        <v>-1.905259574416833</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2198614229080023</v>
+        <v>0.2090298416096335</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1609676397515973</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6033911329400393</v>
+        <v>0.5939233342748792</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.97483383593416</v>
+        <v>-1.963818058591414</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1924619563464493</v>
+        <v>0.1853319836352645</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1138533038480761</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4933809603163456</v>
+        <v>0.4829220405514699</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.929610657435999</v>
+        <v>-1.918261253483071</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1352861623460561</v>
+        <v>0.1265258716659237</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.07029956602815322</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4574261364220476</v>
+        <v>0.4444012803700928</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.938642362817284</v>
+        <v>-1.92814379820842</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1427558608741895</v>
+        <v>0.1329001526586177</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.03076565806261327</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3484400206146139</v>
+        <v>0.3333511929925437</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.888373920481063</v>
+        <v>-1.879740493301694</v>
       </c>
       <c r="G54" t="n">
-        <v>0.10531588013201</v>
+        <v>0.09742533633692038</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.004917792183232569</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3230093779976036</v>
+        <v>0.3099473167843672</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.901936116649232</v>
+        <v>-1.894179755403027</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1208414109586318</v>
+        <v>0.1129899020868541</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.03668986267099964</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2879798037699324</v>
+        <v>0.2745627687228286</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.851720127491211</v>
+        <v>-1.847070092251684</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08773857614880773</v>
+        <v>0.08039696096279135</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.06542892148465194</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2787962281401369</v>
+        <v>0.2654548232569499</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.851868338215661</v>
+        <v>-1.850007470230903</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06358327766687764</v>
+        <v>0.05597512714512237</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.0915583451225612</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2195906181275261</v>
+        <v>0.2049098274382004</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.845068332590597</v>
+        <v>-1.847131694240036</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0346236340142031</v>
+        <v>0.02812736888615954</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1157408190352314</v>
       </c>
       <c r="E59" t="n">
-        <v>0.193474424669851</v>
+        <v>0.1764125036585009</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.880144260789701</v>
+        <v>-1.884098986457736</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01483963702252635</v>
+        <v>0.007291258727092383</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1385555715020273</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1845360371521083</v>
+        <v>0.1695240595353083</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.814893117029164</v>
+        <v>-1.819850552289772</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00635625032963761</v>
+        <v>-0.000335189414965334</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1605868018786947</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1529933794334057</v>
+        <v>0.137104335883442</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.841553359730498</v>
+        <v>-1.844908533373289</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.01310326886200918</v>
+        <v>-0.02027471617921284</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1819141203780607</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1747041158429296</v>
+        <v>0.1578916523883694</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.791672826944688</v>
+        <v>-1.79380876915466</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.03937194248887128</v>
+        <v>-0.04480694563937323</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2022570606404711</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1242484278589465</v>
+        <v>0.1085618779736632</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.834298963201257</v>
+        <v>-1.833787239753465</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06225738612181192</v>
+        <v>-0.07089569266659466</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2209794459335211</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1240746004660733</v>
+        <v>0.1106349983539298</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.798819877434822</v>
+        <v>-1.798974187366039</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.04132063905108133</v>
+        <v>-0.04759916249752584</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2372537618746024</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1197856382671809</v>
+        <v>0.10673943499154</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.818129966060666</v>
+        <v>-1.814569859070487</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.07968160001515044</v>
+        <v>-0.08776243906138545</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2500522821185653</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1162761546931726</v>
+        <v>0.1038904955104498</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.834431925908788</v>
+        <v>-1.831936130499535</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.07168919946704388</v>
+        <v>-0.07951448174972146</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2588212644184462</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1233975885148829</v>
+        <v>0.1109180015479409</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.793778273120822</v>
+        <v>-1.791379455099172</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.08995754357700171</v>
+        <v>-0.09770597585440904</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2632186296527513</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03572332099437985</v>
+        <v>0.01963849290718007</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.826210805106901</v>
+        <v>-1.823344177926185</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1275561036951358</v>
+        <v>-0.1375441646975619</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2635069702529187</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0117144034748693</v>
+        <v>-0.004541812322496689</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.845881966773379</v>
+        <v>-1.842829923706932</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1284459779625112</v>
+        <v>-0.1394452874469856</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2600764790755534</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08132099078806466</v>
+        <v>0.06655664096602443</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.787173442112318</v>
+        <v>-1.786504969050602</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1232714109409806</v>
+        <v>-0.1338096203938336</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.253380236642411</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09066680531787516</v>
+        <v>0.07548222014955551</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.768946572608379</v>
+        <v>-1.768036570958671</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1666721464570189</v>
+        <v>-0.1761930082210561</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2435801945689547</v>
       </c>
       <c r="E72" t="n">
-        <v>0.143868356188578</v>
+        <v>0.1291765869270708</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.720353582371184</v>
+        <v>-1.721310547913002</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1633157529728744</v>
+        <v>-0.1724907897131954</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2306537383423466</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1761221814163688</v>
+        <v>0.1628399388388264</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.680689220920905</v>
+        <v>-1.680567236785555</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1416501506934299</v>
+        <v>-0.151669927571047</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2142583730773601</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2718571606007743</v>
+        <v>0.2589201331262712</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.60317135250961</v>
+        <v>-1.60246811396932</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.168368945779732</v>
+        <v>-0.1786448893415833</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1940432605713338</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3716377436340495</v>
+        <v>0.3576992264083261</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.544731192946318</v>
+        <v>-1.544202391719578</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1503098044618988</v>
+        <v>-0.1590847332382731</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1698125131353058</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4726454870689419</v>
+        <v>0.462082880789019</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.541233297865168</v>
+        <v>-1.539876224359404</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1641263375522725</v>
+        <v>-0.1733696854083894</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1416580825341815</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5996706168118762</v>
+        <v>0.587554542568276</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.463619671907624</v>
+        <v>-1.46173928646121</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1868983359393381</v>
+        <v>-0.1959904234676214</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1101532112322684</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7727947711447822</v>
+        <v>0.7640814443567594</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.417649950501123</v>
+        <v>-1.417351699290193</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1844281571985084</v>
+        <v>-0.1954036797765897</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.07622503132341971</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9792956146713722</v>
+        <v>0.9676882142721799</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.358743201620119</v>
+        <v>-1.360669941037966</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1646100046489338</v>
+        <v>-0.17562212246762</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.04058614801555145</v>
       </c>
       <c r="E80" t="n">
-        <v>1.150704672061263</v>
+        <v>1.142859262396252</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.331378500537141</v>
+        <v>-1.335262475406672</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1725530016222237</v>
+        <v>-0.1823861427727559</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.003645209184230527</v>
       </c>
       <c r="E81" t="n">
-        <v>1.324722970106281</v>
+        <v>1.314708072594078</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.279495598169567</v>
+        <v>-1.284051705624875</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1102471648097026</v>
+        <v>-0.1177778554055109</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.03392384387008318</v>
       </c>
       <c r="E82" t="n">
-        <v>1.558059103568432</v>
+        <v>1.546668225009486</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.29695640730351</v>
+        <v>-1.303791178407149</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.07765178400293291</v>
+        <v>-0.08536728056379583</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.0714210096119955</v>
       </c>
       <c r="E83" t="n">
-        <v>1.749624209562816</v>
+        <v>1.745041265597731</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.212504350718267</v>
+        <v>-1.220643132228793</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.0633473143711607</v>
+        <v>-0.06959900130782828</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1086534895535992</v>
       </c>
       <c r="E84" t="n">
-        <v>1.963243437307732</v>
+        <v>1.959877895013437</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.125993811849</v>
+        <v>-1.133499495697061</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.08225058590561325</v>
+        <v>-0.08822048948962324</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.145294228080507</v>
       </c>
       <c r="E85" t="n">
-        <v>2.071546441957208</v>
+        <v>2.070496158551848</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.047334171930833</v>
+        <v>-1.057538754773505</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.05319945415142651</v>
+        <v>-0.05791536082404249</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1805224356001416</v>
       </c>
       <c r="E86" t="n">
-        <v>2.177740950827166</v>
+        <v>2.178809531852829</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9804722276630037</v>
+        <v>-0.9938069234187465</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05887293628653694</v>
+        <v>-0.06260199130417457</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2131033656182021</v>
       </c>
       <c r="E87" t="n">
-        <v>2.305569346101378</v>
+        <v>2.307423504958692</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8446935163673813</v>
+        <v>-0.8534483177614229</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05770920763530165</v>
+        <v>-0.06139007891947618</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2409258864180694</v>
       </c>
       <c r="E88" t="n">
-        <v>2.390745988450597</v>
+        <v>2.393679706905755</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7700166584683793</v>
+        <v>-0.7771606593551293</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.04261184112375697</v>
+        <v>-0.04662328941472894</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2618511932885225</v>
       </c>
       <c r="E89" t="n">
-        <v>2.421867800902344</v>
+        <v>2.425520005914711</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7191431748208238</v>
+        <v>-0.7236669564802641</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0374683800567406</v>
+        <v>-0.04247216928878166</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.273598229815797</v>
       </c>
       <c r="E90" t="n">
-        <v>2.43575325502919</v>
+        <v>2.434428507319293</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.638205481175003</v>
+        <v>-0.6410098964466906</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04567059331764848</v>
+        <v>-0.04965276541613655</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2746465164685983</v>
       </c>
       <c r="E91" t="n">
-        <v>2.377880321695274</v>
+        <v>2.377566822467426</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4948698526944722</v>
+        <v>-0.4976870763003715</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03467677311926474</v>
+        <v>-0.04018923619571368</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2635831644118152</v>
       </c>
       <c r="E92" t="n">
-        <v>2.316762610361058</v>
+        <v>2.319631677224481</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4186840510411955</v>
+        <v>-0.4195159828442799</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02920822433154165</v>
+        <v>-0.03536232395992955</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2407268071439387</v>
       </c>
       <c r="E93" t="n">
-        <v>2.229944061550032</v>
+        <v>2.22697740737833</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3313330414793689</v>
+        <v>-0.3324290689354852</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02774197502463932</v>
+        <v>-0.03401805878837683</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2070106849720474</v>
       </c>
       <c r="E94" t="n">
-        <v>2.119591113506006</v>
+        <v>2.11912147458491</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2477171861419474</v>
+        <v>-0.249095606871398</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08075932985096425</v>
+        <v>-0.084764069014492</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1657133053393538</v>
       </c>
       <c r="E95" t="n">
-        <v>1.972600230409724</v>
+        <v>1.969775077835027</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1727237794117132</v>
+        <v>-0.1742961549163697</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08817779504225089</v>
+        <v>-0.0914689270139834</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1217330107780041</v>
       </c>
       <c r="E96" t="n">
-        <v>1.807474575831692</v>
+        <v>1.801544317091671</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.06549850459805109</v>
+        <v>-0.06555156769692817</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07846541818571481</v>
+        <v>-0.08133936441455165</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.08119103544360412</v>
       </c>
       <c r="E97" t="n">
-        <v>1.676393473588383</v>
+        <v>1.669431229063304</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004670429579105978</v>
+        <v>0.003261512815817964</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0816699414213491</v>
+        <v>-0.0855813627213344</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.0479909624848543</v>
       </c>
       <c r="E98" t="n">
-        <v>1.502842984702431</v>
+        <v>1.499322522556241</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04322229571499722</v>
+        <v>0.04291672545594645</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1039515635843092</v>
+        <v>-0.1079075090936971</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.02461806364921754</v>
       </c>
       <c r="E99" t="n">
-        <v>1.413733573829539</v>
+        <v>1.411153609366895</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08833141904660684</v>
+        <v>0.08737994279087988</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09422271886950088</v>
+        <v>-0.09971444464294039</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.009586543507498487</v>
       </c>
       <c r="E100" t="n">
-        <v>1.275274871080286</v>
+        <v>1.271385406924664</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1295571774293616</v>
+        <v>0.1282970813112001</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1249364943885028</v>
+        <v>-0.1316553805635594</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0009658444359042316</v>
       </c>
       <c r="E101" t="n">
-        <v>1.198606012251025</v>
+        <v>1.193590024605449</v>
       </c>
       <c r="F101" t="n">
-        <v>0.15517384585278</v>
+        <v>0.1565986205536635</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1716234825108597</v>
+        <v>-0.175287885936762</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.007138124556105979</v>
       </c>
       <c r="E102" t="n">
-        <v>1.113450107204814</v>
+        <v>1.112905448040479</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1736635911683974</v>
+        <v>0.1749151483970844</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1742656588825323</v>
+        <v>-0.1792950647829968</v>
       </c>
     </row>
   </sheetData>
